--- a/EstrattoConto FilippoBianchi.xlsx
+++ b/EstrattoConto FilippoBianchi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="205">
   <si>
     <t>Estratto conto al 31.12.2019</t>
   </si>
@@ -81,10 +81,18 @@
     <t>03.10.19</t>
   </si>
   <si>
-    <t>SOTTOSCRIZIONE OBBLIGAZIONI CORPORATE ENEL</t>
-  </si>
-  <si>
-    <t>PAGAMENTO MUTUO INTESA SAN PAOLO</t>
+    <t>DISPOSIZIONE DI ADDEBITO GENERICA
+Ricarica Prepagata Business Easy **** **** ***125 89</t>
+  </si>
+  <si>
+    <t>2.500,00</t>
+  </si>
+  <si>
+    <t>COMMISSIONI - PROVVIGIONI - SPESE
+Commissione per Ricarica Prepagata Business Easy * *** **** ***12589</t>
+  </si>
+  <si>
+    <t>1,50</t>
   </si>
   <si>
     <t>BONIFICO A VOSTRO FAVORE
@@ -131,10 +139,13 @@
     <t>5,00</t>
   </si>
   <si>
+    <t>10.10.19</t>
+  </si>
+  <si>
     <t>12.10.19</t>
   </si>
   <si>
-    <t>VOSTRI EMOLUMENTI BONIFICO SEPA DA: STUDIO COMMERCIALISTA MAGRI &amp; ASSOCIATI</t>
+    <t>VOSTRI EMOLUMENTI BONIFICO SEPA DA: BAR ITALIANO S.R.L.</t>
   </si>
   <si>
     <t>15.10.19</t>
@@ -156,20 +167,6 @@
   </si>
   <si>
     <t>967,17</t>
-  </si>
-  <si>
-    <t>DISPOSIZIONE DI ADDEBITO GENERICA
-Ricarica Prepagata Business Easy **** **** ***125 89</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>COMMISSIONI - PROVVIGIONI - SPESE
-Commissione per Ricarica Prepagata Business Easy * *** **** ***12589</t>
-  </si>
-  <si>
-    <t>1,50</t>
   </si>
   <si>
     <t>31.10.19</t>
@@ -190,10 +187,10 @@
 MESE DI OTTOBRE 2019</t>
   </si>
   <si>
-    <t>03.11.19</t>
-  </si>
-  <si>
     <t>04.11.19</t>
+  </si>
+  <si>
+    <t>33,14</t>
   </si>
   <si>
     <t>DISPOSIZIONE DI BONIFICO
@@ -251,6 +248,9 @@
     <t>81,66</t>
   </si>
   <si>
+    <t>10.11.19</t>
+  </si>
+  <si>
     <t>12.11.19</t>
   </si>
   <si>
@@ -317,6 +317,20 @@
   <si>
     <t>DISPOSIZIONE DI BONIFICO
 BONIFICO SEPA A: ESEDRA SRL NQ AGENTE SOCIETA' REALE MUTUA PER: FONDO PENSIONE N. 5637183 - MICHELE ALOISI - RIMESSA RELATIVA AL TFR M ATURATO NEL MESE DI OTTOBRE 2019 COMM: 0,86 SPESE: 0,00 COMM SERV: 0,00</t>
+  </si>
+  <si>
+    <t>DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: ESEDRA SRL NQ AGENTE SOCIETA' REALE MUTUA</t>
+  </si>
+  <si>
+    <t>PER: FONDO PENSIONE N. 5637203 - MICHELE DE GIACOMO - RIMESSA</t>
+  </si>
+  <si>
+    <t>382,73</t>
+  </si>
+  <si>
+    <t>RELATIVA AL T FR MATURATO NEL MESE DI OTTOBRE 2019 COMM: 0,86
+SPESE: 0,00</t>
   </si>
   <si>
     <t>DISPOSIZIONE DI BONIFICO
@@ -395,7 +409,12 @@
     <t>922,70</t>
   </si>
   <si>
-    <t>SOTTOSCRIZIONE DI OPERAZIONI E SERVIZI DI INVESTIMENTO</t>
+    <t>DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: CARLA SERRA PER: Rimborso spese (rif. 26-28 novembre
+2019) COMM: 0,86 SPESE: 0,00 COMM SERV: 0,00</t>
+  </si>
+  <si>
+    <t>74,86</t>
   </si>
   <si>
     <t>02.12.19</t>
@@ -488,6 +507,9 @@
     <t>2.544,60</t>
   </si>
   <si>
+    <t>10.12.19</t>
+  </si>
+  <si>
     <t>12.12.19</t>
   </si>
   <si>
@@ -539,10 +561,18 @@
     <t>1.268,54</t>
   </si>
   <si>
-    <t>PAGAMENTO RETTA SCUOLA SUPERIORE G. VERDI</t>
-  </si>
-  <si>
-    <t>PAGAMENTO RETTA SCUOLA PRIMARIA A.MANZONI</t>
+    <t>DISPOSIZIONE PAGAMENTO STIPENDI
+DISTINTA DISPOS.NI NUM. 60363901NUMERO DISPOS.NI 5 COMM.NI : 3,05</t>
+  </si>
+  <si>
+    <t>12.796,05</t>
+  </si>
+  <si>
+    <t>DISPOSIZIONE PAGAMENTO STIPENDI
+DISTINTA DISPOS.NI NUM. 60363900 NUMERO DISPOS.NI 1COMM.NI : 0,54</t>
+  </si>
+  <si>
+    <t>1.841,54</t>
   </si>
   <si>
     <t>19.12.19</t>
@@ -878,17 +908,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -927,6 +946,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1032,44 +1062,44 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1394,7 +1424,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1534,8 +1564,8 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
@@ -1556,8 +1586,8 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
@@ -1578,8 +1608,8 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -1600,11 +1630,11 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1614,19 +1644,19 @@
       <c r="C11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24">
-        <v>20000</v>
+      <c r="D11" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24">
       <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
@@ -1634,18 +1664,18 @@
         <v>20</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="21">
-        <v>800</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33">
@@ -1656,7 +1686,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="24">
@@ -1666,11 +1696,11 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
       <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
@@ -1678,142 +1708,142 @@
         <v>20</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42">
       <c r="A15" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="42">
       <c r="A16" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="28"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="26.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24">
       <c r="A17" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+        <v>1310.88</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24">
       <c r="A19" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="35.15">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="35">
       <c r="A20" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="5"/>
@@ -1826,16 +1856,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24">
       <c r="A21" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="5"/>
@@ -1848,16 +1878,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24">
       <c r="A22" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="5"/>
@@ -1868,18 +1898,18 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="35.15">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="35">
       <c r="A23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="5"/>
@@ -1892,13 +1922,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24">
       <c r="A24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>15</v>
@@ -1912,40 +1942,40 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24">
-      <c r="A25" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="35">
+      <c r="A25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="21">
-        <v>800</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="35.15">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="35">
       <c r="A26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="20" t="s">
+      <c r="D26" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="5"/>
@@ -1956,18 +1986,18 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="35.15">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="35">
       <c r="A27" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="5"/>
@@ -1980,16 +2010,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46">
       <c r="A28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D28" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="5"/>
@@ -2000,18 +2030,18 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="35.15">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="35">
       <c r="A29" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="5"/>
@@ -2022,18 +2052,18 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="35.15">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="35">
       <c r="A30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="5"/>
@@ -2044,18 +2074,18 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="35.15">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="35">
       <c r="A31" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="D31" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="5"/>
@@ -2068,27 +2098,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24">
       <c r="A32" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24">
-        <v>2000</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+        <v>1310.88</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="33.65">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="33.5">
       <c r="A33" s="19" t="s">
         <v>68</v>
       </c>
@@ -2118,7 +2148,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>72</v>
@@ -2132,7 +2162,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="36.65">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="36.5">
       <c r="A35" s="19" t="s">
         <v>71</v>
       </c>
@@ -2140,10 +2170,10 @@
         <v>71</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="5"/>
@@ -2242,7 +2272,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30.649999999999995">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30.5">
       <c r="A40" s="13" t="s">
         <v>82</v>
       </c>
@@ -2264,7 +2294,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="42.65">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="42.5">
       <c r="A41" s="13" t="s">
         <v>82</v>
       </c>
@@ -2286,20 +2316,14 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="40">
-      <c r="A42" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="29"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2308,20 +2332,20 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="27">
-      <c r="A43" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="30"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -2331,19 +2355,13 @@
       <c r="L43" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="29"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -2352,20 +2370,20 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="40">
+      <c r="A45" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="30"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2374,20 +2392,20 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="27">
+      <c r="A46" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -2397,19 +2415,19 @@
       <c r="L46" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="23" t="s">
+      <c r="A47" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="30"/>
+      <c r="B47" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="29"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -2419,19 +2437,19 @@
       <c r="L47" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="29"/>
+      <c r="A48" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="30"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -2441,19 +2459,19 @@
       <c r="L48" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="30"/>
+      <c r="A49" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="29"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -2463,19 +2481,19 @@
       <c r="L49" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="29"/>
+      <c r="A50" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="30"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -2484,20 +2502,20 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="25.5">
-      <c r="A51" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="30"/>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="29"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -2507,19 +2525,19 @@
       <c r="L51" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="29"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -2528,20 +2546,20 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="37">
-      <c r="A53" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="24">
-        <v>27000</v>
-      </c>
-      <c r="E53" s="30"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -2551,19 +2569,19 @@
       <c r="L53" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="25.5">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="29"/>
+      <c r="B54" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="30"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -2572,20 +2590,20 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="31.5">
-      <c r="A55" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="30"/>
+      <c r="C55" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="29"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -2595,19 +2613,19 @@
       <c r="L55" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="37">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="29"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -2616,42 +2634,42 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="25.5">
       <c r="A57" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="21">
-        <v>800</v>
-      </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="29"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="27">
-      <c r="A58" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="31.5">
+      <c r="A58" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="29"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -2660,20 +2678,20 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="27">
-      <c r="A59" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="30"/>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="37">
+      <c r="A59" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="29"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -2682,20 +2700,20 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="41.5">
-      <c r="A60" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="35.5">
+      <c r="A60" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="29"/>
+      <c r="C60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -2704,20 +2722,20 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="37.5">
-      <c r="A61" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="27">
+      <c r="A61" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="B61" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="30"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -2726,20 +2744,20 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="34.5">
-      <c r="A62" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="29"/>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="27">
+      <c r="A62" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="30"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -2748,20 +2766,20 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="41.5">
+      <c r="A63" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="30"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -2771,19 +2789,19 @@
       <c r="L63" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="37.5">
-      <c r="A64" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="20" t="s">
+      <c r="A64" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="29"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -2792,20 +2810,20 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="35.5">
-      <c r="A65" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="34.5">
+      <c r="A65" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E65" s="30"/>
+      <c r="E65" s="29"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -2814,20 +2832,20 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="35.5">
-      <c r="A66" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66" s="29"/>
+      <c r="D66" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="30"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -2836,20 +2854,20 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="24">
-      <c r="A67" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24">
-        <v>2000</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="37.5">
+      <c r="A67" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="29"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -2858,20 +2876,20 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="30">
-      <c r="A68" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="35.5">
+      <c r="A68" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="29"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -2880,20 +2898,20 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" s="30"/>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="35.5">
+      <c r="A69" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" s="29"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -2902,42 +2920,42 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="24">
+      <c r="A70" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24">
+        <v>1310.88</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="30">
+      <c r="A71" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="B71" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="28.5">
-      <c r="A71" s="13" t="s">
+      <c r="C71" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="23" t="s">
+      <c r="D71" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="30"/>
+      <c r="E71" s="29"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -2946,20 +2964,20 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="30.649999999999995">
-      <c r="A72" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" s="29"/>
+      <c r="E72" s="30"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -2968,20 +2986,20 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="36">
-      <c r="A73" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="24">
-        <v>500</v>
-      </c>
-      <c r="E73" s="30"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -2990,20 +3008,20 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="29.149999999999995">
-      <c r="A74" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="28.5">
+      <c r="A74" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="21">
-        <v>800</v>
-      </c>
-      <c r="E74" s="29"/>
+      <c r="B74" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E74" s="30"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -3012,20 +3030,20 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="51.65">
-      <c r="A75" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="24" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="30.5">
+      <c r="A75" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="30"/>
+      <c r="D75" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="29"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -3034,20 +3052,20 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="38.5">
-      <c r="A76" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="36">
+      <c r="A76" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="29"/>
+      <c r="D76" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" s="30"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -3056,20 +3074,20 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="24" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="29">
+      <c r="A77" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="30"/>
+      <c r="D77" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="29"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -3078,20 +3096,20 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" s="35" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="51.5">
+      <c r="A78" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E78" s="33"/>
+      <c r="B78" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" s="30"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -3100,20 +3118,20 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="29.149999999999995">
-      <c r="A79" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" s="30"/>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="38.5">
+      <c r="A79" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" s="29"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -3122,20 +3140,20 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="31.5">
-      <c r="A80" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="29"/>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E80" s="30"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -3145,19 +3163,19 @@
       <c r="L80" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E81" s="30"/>
+      <c r="A81" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="33"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -3166,20 +3184,20 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="34.5">
-      <c r="A82" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E82" s="29"/>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="29">
+      <c r="A82" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" s="30"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -3188,20 +3206,20 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="35.5">
-      <c r="A83" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" s="30"/>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="31.5">
+      <c r="A83" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="29"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -3211,19 +3229,19 @@
       <c r="L83" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="21" t="s">
+      <c r="A84" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E84" s="29"/>
+      <c r="B84" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E84" s="30"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -3232,14 +3250,20 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="34.5">
+      <c r="A85" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="29"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -3248,20 +3272,20 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C86" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="E86" s="43"/>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="35.5">
+      <c r="A86" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" s="30"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -3271,13 +3295,19 @@
       <c r="L86" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
+      <c r="A87" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="29"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -3286,20 +3316,14 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="53.15">
-      <c r="A88" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" s="29"/>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="36"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -3308,20 +3332,20 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="30.649999999999995">
-      <c r="A89" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" s="24" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E89" s="30"/>
+      <c r="B89" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" s="41"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -3330,20 +3354,14 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="33">
-      <c r="A90" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E90" s="29"/>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -3352,20 +3370,20 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="27.649999999999995">
-      <c r="A91" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D91" s="24" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="53">
+      <c r="A91" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E91" s="30"/>
+      <c r="D91" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="29"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -3374,20 +3392,20 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="25.5">
-      <c r="A92" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D92" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="30.5">
+      <c r="A92" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E92" s="29"/>
+      <c r="B92" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" s="30"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -3396,20 +3414,20 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="48.65">
-      <c r="A93" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D93" s="24" t="s">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="33">
+      <c r="A93" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E93" s="30"/>
+      <c r="D93" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="29"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -3418,20 +3436,20 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="36">
-      <c r="A94" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D94" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="27.5">
+      <c r="A94" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="E94" s="29"/>
+      <c r="D94" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E94" s="30"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -3440,20 +3458,20 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="45.65">
-      <c r="A95" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E95" s="30"/>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="25.5">
+      <c r="A95" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E95" s="29"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -3462,20 +3480,20 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="35.5">
-      <c r="A96" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D96" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="48.5">
+      <c r="A96" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E96" s="29"/>
+      <c r="B96" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="30"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -3485,19 +3503,19 @@
       <c r="L96" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="36">
-      <c r="A97" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E97" s="30"/>
+      <c r="A97" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" s="29"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -3506,20 +3524,20 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="31.5">
-      <c r="A98" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="29"/>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="45.5">
+      <c r="A98" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="30"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
@@ -3528,20 +3546,20 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="24" t="s">
-        <v>195</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="35.5">
+      <c r="A99" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E99" s="29"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
@@ -3550,20 +3568,20 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="20.5">
-      <c r="A100" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="21" t="s">
-        <v>196</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="36">
+      <c r="A100" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E100" s="30"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -3572,12 +3590,20 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.65">
-      <c r="A101" s="47"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="49"/>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="31.5">
+      <c r="A101" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="29"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -3586,9 +3612,69 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" s="16"/>
+      <c r="E102" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="20.5">
+      <c r="A103" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" s="27"/>
+      <c r="E103" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.5">
+      <c r="A104" s="47"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
